--- a/2025-12-24-FaktorijalniOgledi.xlsx
+++ b/2025-12-24-FaktorijalniOgledi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-Nastava\!!Master_studije\!!!Osnov_princ_eksp_rada_i_inf_sistemi\2025\Vezbe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milos-T460\Documents\GitHub\OPERISP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D619DE9E-77A5-4010-8D90-BF2F63CCE511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C42E2B0-378D-4576-9124-E7375E5D0BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{C4AA8DAF-3D8E-452C-85C1-A1EC059A125D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>b1</t>
   </si>
@@ -228,6 +228,9 @@
   <si>
     <t>Razlika izmedju jednostavnih efekata za dubinu unosenja -0.18-0.54=-0.72, odnosno za vrstu djubriva 0,02-0,74=0,72
  pretstavlja interakciju dubina unosenja i vrste djubriva. Ta razlika se ponekad deli sa dva, tj. -0,72/2=-0,36. Interakcija ovde pokazuje odredjen efekat na rezultate ogleda u ostvarenoj kombinaciji dva faktora.</t>
+  </si>
+  <si>
+    <t>Pogledati str.169-172 u knjizi o uporedjenjima</t>
   </si>
 </sst>
 </file>
@@ -381,6 +384,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -391,15 +403,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -738,7 +741,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3943B4E8-FD58-43D0-97E3-0E16C771011D}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -752,20 +757,20 @@
       <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="G1" s="19" t="s">
+      <c r="E1" s="16"/>
+      <c r="G1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -783,10 +788,10 @@
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -1101,12 +1106,12 @@
       <c r="A22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
@@ -1234,13 +1239,16 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="H31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="K31" s="17"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
@@ -1365,16 +1373,16 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="18"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="15"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="8" t="s">
         <v>42</v>
       </c>
@@ -1406,10 +1414,10 @@
         <f>B40-C40</f>
         <v>-0.17999999999999972</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H40" s="8"/>
@@ -1432,8 +1440,8 @@
         <f>B41-C41</f>
         <v>0.54</v>
       </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
       <c r="H41" s="8" t="s">
         <v>49</v>
       </c>
@@ -1466,82 +1474,82 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="18"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="15"/>
+      <c r="C45" s="18"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="15"/>
+      <c r="C46" s="18"/>
     </row>
     <row r="48" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A49:H51"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:J2"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:H51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
